--- a/debug_filtered_final.xlsx
+++ b/debug_filtered_final.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>JobTitle</x:t>
   </x:si>
@@ -22,49 +22,34 @@
     <x:t>Company</x:t>
   </x:si>
   <x:si>
+    <x:t>Java developer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EEU SOftware</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Software Developer .NET - Divizia IT - Bucuresti</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Libra Internet Bank</x:t>
+  </x:si>
+  <x:si>
     <x:t>Junior Developer (nonJava)</x:t>
   </x:si>
   <x:si>
-    <x:t>Junior Developer (nonJava)
-Adesea răspunde în decurs de 3 zile
-Generix Group
-Cluj-Napoca
-Candidați cu ușurință
-Assurer les évolutions et la maintenance.
-Connaissances d'utilisation PC: navigateurs web (IE, Mozilla Firefox etc.), MS Office (Word, Excel etc.), système…
-Vedeți toate locurile de muncă locuri de munca Generix Group - Cluj-Napoca - locuri de munca Développeur (H/F) in Cluj-Napoca
-Cautare salariu: Junior Developer (nonJava)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Junior Developer (nonJava)
-Adesea răspunde în decurs de 3 zile
-Generix Group
-Cluj-Napoca
-Candidați cu ușurință</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Junior Developer (nonJava)
-Adesea răspunde în decurs de 3 zile</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Adesea răspunde în decurs de 3 zile</x:t>
+    <x:t>Generix Group</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Candidați cu ușurință</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vedeți toate locurile de muncă locuri de munca Generix Group - Cluj-Napoca - locuri de munca Développeur (H/F) in Cluj-Napoca</x:t>
   </x:si>
   <x:si>
     <x:t>N/A</x:t>
   </x:si>
   <x:si>
-    <x:t>Generix Group
-Cluj-Napoca</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Generix Group</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Candidați cu ușurință</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Assurer les évolutions et la maintenance.
-Connaissances d'utilisation PC: navigateurs web (IE, Mozilla Firefox etc.), MS Office (Word, Excel etc.), système…</x:t>
+    <x:t>26 octobre 2020 Generix Group, l'un des principaux éditeurs d'applications SaaS pour les écosystèmes industriels, logistiques et commerciaux, accélère ses…</x:t>
   </x:si>
   <x:si>
     <x:t>Vedeți toate locurile de muncă locuri de munca Generix Group - Cluj-Napoca - locuri de munca Développeur (H/F) in Cluj-Napoca
@@ -72,8 +57,7 @@
   </x:si>
   <x:si>
     <x:t>Junior Developer (nonJava)Adesea răspunde în decurs de 3 zileGenerix GroupCluj-NapocaCandidați cu ușurință
- Assurer les évolutions et la maintenance.
- Connaissances d'utilisation PC: navigateurs web (IE, Mozilla Firefox etc.), MS Office (Word, Excel etc.), système…
+ 26 octobre 2020 Generix Group, l'un des principaux éditeurs d'applications SaaS pour les écosystèmes industriels, logistiques et commerciaux, accélère ses…
 Vedeți toate locurile de muncă locuri de munca Generix Group - Cluj-Napoca - locuri de munca Développeur (H/F) in Cluj-NapocaCautare salariu: Junior Developer (nonJava)</x:t>
   </x:si>
   <x:si>
@@ -83,12 +67,14 @@
     <x:t>Junior Developer (nonJava)Adesea răspunde în decurs de 3 zile</x:t>
   </x:si>
   <x:si>
+    <x:t>Adesea răspunde în decurs de 3 zile</x:t>
+  </x:si>
+  <x:si>
     <x:t>Generix GroupCluj-Napoca</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
- Assurer les évolutions et la maintenance.
- Connaissances d'utilisation PC: navigateurs web (IE, Mozilla Firefox etc.), MS Office (Word, Excel etc.), système…
+ 26 octobre 2020 Generix Group, l'un des principaux éditeurs d'applications SaaS pour les écosystèmes industriels, logistiques et commerciaux, accélère ses…
 </x:t>
   </x:si>
   <x:si>
@@ -467,111 +453,111 @@
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="A5" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
       <x:c r="A8" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2">
       <x:c r="A9" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">
       <x:c r="A10" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2">
       <x:c r="A11" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:2">
       <x:c r="A12" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
         <x:v>7</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:2">
       <x:c r="A13" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:2">
       <x:c r="A14" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
         <x:v>7</x:v>
-      </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:2">
       <x:c r="A15" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:2">
       <x:c r="A16" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>11</x:v>
@@ -579,7 +565,7 @@
     </x:row>
     <x:row r="17" spans="1:2">
       <x:c r="A17" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>12</x:v>
@@ -587,7 +573,7 @@
     </x:row>
     <x:row r="18" spans="1:2">
       <x:c r="A18" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>12</x:v>
@@ -595,7 +581,7 @@
     </x:row>
     <x:row r="19" spans="1:2">
       <x:c r="A19" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>13</x:v>
@@ -603,7 +589,7 @@
     </x:row>
     <x:row r="20" spans="1:2">
       <x:c r="A20" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>13</x:v>
@@ -611,7 +597,7 @@
     </x:row>
     <x:row r="21" spans="1:2">
       <x:c r="A21" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>14</x:v>
@@ -619,7 +605,7 @@
     </x:row>
     <x:row r="22" spans="1:2">
       <x:c r="A22" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>14</x:v>
@@ -627,7 +613,7 @@
     </x:row>
     <x:row r="23" spans="1:2">
       <x:c r="A23" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>14</x:v>
@@ -635,7 +621,7 @@
     </x:row>
     <x:row r="24" spans="1:2">
       <x:c r="A24" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>15</x:v>
@@ -643,90 +629,90 @@
     </x:row>
     <x:row r="25" spans="1:2">
       <x:c r="A25" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:2">
       <x:c r="A26" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:2">
       <x:c r="A27" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:2">
       <x:c r="A28" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:2">
       <x:c r="A29" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:2">
       <x:c r="A30" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:2">
       <x:c r="A31" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
         <x:v>7</x:v>
-      </x:c>
-      <x:c r="B31" s="0" t="s">
-        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:2">
       <x:c r="A32" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:2">
       <x:c r="A33" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:2">
       <x:c r="A34" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:2">
       <x:c r="A35" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/debug_filtered_final.xlsx
+++ b/debug_filtered_final.xlsx
@@ -22,22 +22,25 @@
     <x:t>Company</x:t>
   </x:si>
   <x:si>
+    <x:t>Junior Developer (nonJava)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Generix Group</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Software Developer .NET - Divizia IT - Bucuresti</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Libra Internet Bank</x:t>
+  </x:si>
+  <x:si>
     <x:t>Java developer</x:t>
   </x:si>
   <x:si>
     <x:t>EEU SOftware</x:t>
   </x:si>
   <x:si>
-    <x:t>Software Developer .NET - Divizia IT - Bucuresti</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Libra Internet Bank</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Junior Developer (nonJava)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Generix Group</x:t>
+    <x:t>See how you compare to over 100 other applicants</x:t>
   </x:si>
   <x:si>
     <x:t>Candidați cu ușurință</x:t>
@@ -453,10 +456,10 @@
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
@@ -469,23 +472,23 @@
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="A5" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>7</x:v>
@@ -493,26 +496,23 @@
     </x:row>
     <x:row r="8" spans="1:2">
       <x:c r="A8" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2">
       <x:c r="A9" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">
       <x:c r="A10" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2">
@@ -525,194 +525,194 @@
     </x:row>
     <x:row r="12" spans="1:2">
       <x:c r="A12" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:2">
       <x:c r="A13" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:2">
       <x:c r="A14" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:2">
       <x:c r="A15" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:2">
       <x:c r="A16" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:2">
       <x:c r="A17" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:2">
       <x:c r="A18" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:2">
       <x:c r="A19" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:2">
       <x:c r="A20" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:2">
       <x:c r="A21" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:2">
       <x:c r="A22" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:2">
       <x:c r="A23" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:2">
       <x:c r="A24" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:2">
       <x:c r="A25" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:2">
       <x:c r="A26" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:2">
       <x:c r="A27" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:2">
       <x:c r="A28" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:2">
       <x:c r="A29" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:2">
       <x:c r="A30" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:2">
       <x:c r="A31" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:2">
       <x:c r="A32" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:2">
       <x:c r="A33" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:2">
       <x:c r="A34" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:2">
       <x:c r="A35" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
